--- a/experiment/output/results/OfficeHome/RSC/DG/3.xlsx
+++ b/experiment/output/results/OfficeHome/RSC/DG/3.xlsx
@@ -488,23 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250131_16-02-01_resnet50_EVE</t>
+          <t>250216_07-38-24_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.721</v>
+        <v>78.629</v>
       </c>
       <c r="E2" t="n">
-        <v>1.721</v>
+        <v>78.371</v>
       </c>
       <c r="F2" t="n">
-        <v>2.238</v>
+        <v>76.39100000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/output/results/OfficeHome/RSC/DG/3.xlsx
+++ b/experiment/output/results/OfficeHome/RSC/DG/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,81 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>250218_12-20-08_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>250216_07-38-24_resnet50_GENIE</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>78.629</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>78.371</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>76.39100000000001</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H3" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>250218_11-01-03_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
